--- a/data-raw/qsar_fish_toxicity.xlsx
+++ b/data-raw/qsar_fish_toxicity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiny\KTPmars\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF3EF0A-0C12-4F1D-93DF-89A05CAF0CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB75BA23-36E5-4F99-AB95-828AF7BF845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="6840" yWindow="3495" windowWidth="21210" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qsar_fish_toxicity" sheetId="1" r:id="rId1"/>
@@ -23,49 +23,56 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>1) CIC0</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2) SM1_Dz(Z)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3) GATS1i</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>4) NdsCH</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>5) NdssC</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>6) MLOGP</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>7) quantitative response, LC50 [-LOG(mol/L)]</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -73,7 +80,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -81,7 +88,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,35 +96,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,7 +132,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,14 +140,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,14 +155,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -163,7 +170,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,14 +178,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,6 +194,13 @@
       <color rgb="FF123654"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -893,19 +907,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="7" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -928,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3.26</v>
       </c>
@@ -951,7 +965,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1890000000000001</v>
       </c>
@@ -974,7 +988,7 @@
         <v>3.1150000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.125</v>
       </c>
@@ -997,7 +1011,7 @@
         <v>3.5310000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3.0270000000000001</v>
       </c>
@@ -1021,7 +1035,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.0939999999999999</v>
       </c>
@@ -1045,7 +1059,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.222</v>
       </c>
@@ -1069,7 +1083,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.1789999999999998</v>
       </c>
@@ -1093,7 +1107,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1117,7 +1131,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2.62</v>
       </c>
@@ -1141,7 +1155,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.8340000000000001</v>
       </c>
@@ -1165,7 +1179,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.4049999999999998</v>
       </c>
@@ -1188,7 +1202,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.7280000000000002</v>
       </c>
@@ -1211,7 +1225,7 @@
         <v>2.371</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.512</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>3.919</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2.8340000000000001</v>
       </c>
@@ -1257,7 +1271,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2.819</v>
       </c>
@@ -1280,7 +1294,7 @@
         <v>2.7360000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.1259999999999999</v>
       </c>
@@ -1303,7 +1317,7 @@
         <v>2.157</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2.8340000000000001</v>
       </c>
@@ -1326,7 +1340,7 @@
         <v>2.4129999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.0139999999999998</v>
       </c>
@@ -1349,7 +1363,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.024</v>
       </c>
@@ -1372,7 +1386,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.036</v>
       </c>
@@ -1395,7 +1409,7 @@
         <v>3.7330000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2.7069999999999999</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>2.976</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.9780000000000002</v>
       </c>
@@ -1441,7 +1455,7 @@
         <v>6.5350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3.1110000000000002</v>
       </c>
@@ -1464,7 +1478,7 @@
         <v>5.6429999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3.3149999999999999</v>
       </c>
@@ -1487,7 +1501,7 @@
         <v>4.6289999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2.71</v>
       </c>
@@ -1510,7 +1524,7 @@
         <v>4.8380000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3.3260000000000001</v>
       </c>
@@ -1533,7 +1547,7 @@
         <v>4.0810000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3.3319999999999999</v>
       </c>
@@ -1556,7 +1570,7 @@
         <v>3.4359999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3.8959999999999999</v>
       </c>
@@ -1579,7 +1593,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3.1549999999999998</v>
       </c>
@@ -1602,7 +1616,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.4790000000000001</v>
       </c>
@@ -1625,7 +1639,7 @@
         <v>4.2569999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.075</v>
       </c>
@@ -1648,7 +1662,7 @@
         <v>5.3860000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.645</v>
       </c>
@@ -1671,7 +1685,7 @@
         <v>3.3929999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.0790000000000002</v>
       </c>
@@ -1694,7 +1708,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.3319999999999999</v>
       </c>
@@ -1717,7 +1731,7 @@
         <v>3.5539999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2.726</v>
       </c>
@@ -1740,7 +1754,7 @@
         <v>2.2690000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.532</v>
       </c>
@@ -1763,7 +1777,7 @@
         <v>4.165</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4.2160000000000002</v>
       </c>
@@ -1786,7 +1800,7 @@
         <v>5.8959999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.605</v>
       </c>
@@ -1809,7 +1823,7 @@
         <v>4.8289999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2.9180000000000001</v>
       </c>
@@ -1832,7 +1846,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3.8330000000000002</v>
       </c>
@@ -1855,7 +1869,7 @@
         <v>2.0920000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3.669</v>
       </c>
@@ -1878,7 +1892,7 @@
         <v>3.665</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.8239999999999998</v>
       </c>
@@ -1901,7 +1915,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2.2330000000000001</v>
       </c>
@@ -1924,7 +1938,7 @@
         <v>4.8049999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3.1030000000000002</v>
       </c>
@@ -1947,7 +1961,7 @@
         <v>3.1739999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4.4130000000000003</v>
       </c>
@@ -1970,7 +1984,7 @@
         <v>7.899</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3.641</v>
       </c>
@@ -1993,7 +2007,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3.073</v>
       </c>
@@ -2016,7 +2030,7 @@
         <v>4.016</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3.012</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>3.8570000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3.8180000000000001</v>
       </c>
@@ -2062,7 +2076,7 @@
         <v>5.5220000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4.1710000000000003</v>
       </c>
@@ -2085,7 +2099,7 @@
         <v>4.851</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3.734</v>
       </c>
@@ -2108,7 +2122,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3.734</v>
       </c>
@@ -2131,7 +2145,7 @@
         <v>4.5860000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2.1259999999999999</v>
       </c>
@@ -2154,7 +2168,7 @@
         <v>5.2839999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2.2160000000000002</v>
       </c>
@@ -2177,7 +2191,7 @@
         <v>3.5590000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3.1789999999999998</v>
       </c>
@@ -2200,7 +2214,7 @@
         <v>4.0910000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2.62</v>
       </c>
@@ -2223,7 +2237,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2.7280000000000002</v>
       </c>
@@ -2246,7 +2260,7 @@
         <v>3.7549999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2.1259999999999999</v>
       </c>
@@ -2269,7 +2283,7 @@
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2.2160000000000002</v>
       </c>
@@ -2292,7 +2306,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2.0859999999999999</v>
       </c>
@@ -2315,7 +2329,7 @@
         <v>4.4589999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2.8340000000000001</v>
       </c>
@@ -2338,7 +2352,7 @@
         <v>2.827</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2.1259999999999999</v>
       </c>
@@ -2361,7 +2375,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3.08</v>
       </c>
@@ -2384,7 +2398,7 @@
         <v>4.7859999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1.6359999999999999</v>
       </c>
@@ -2407,7 +2421,7 @@
         <v>3.8610000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2.2189999999999999</v>
       </c>
@@ -2430,7 +2444,7 @@
         <v>3.262</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1.5940000000000001</v>
       </c>
@@ -2453,7 +2467,7 @@
         <v>6.2969999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1.8180000000000001</v>
       </c>
@@ -2476,7 +2490,7 @@
         <v>3.5459999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1.5</v>
       </c>
@@ -2499,7 +2513,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1.512</v>
       </c>
@@ -2522,7 +2536,7 @@
         <v>3.2029999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2.56</v>
       </c>
@@ -2545,7 +2559,7 @@
         <v>2.2829999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1.8180000000000001</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>1.5589999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1.359</v>
       </c>
@@ -2591,7 +2605,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.66700000000000004</v>
       </c>
@@ -2614,7 +2628,7 @@
         <v>4.7480000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2.3330000000000002</v>
       </c>
@@ -2637,7 +2651,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2.0259999999999998</v>
       </c>
@@ -2660,7 +2674,7 @@
         <v>5.2590000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.5940000000000001</v>
       </c>
@@ -2683,7 +2697,7 @@
         <v>4.5640000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.96499999999999997</v>
       </c>
@@ -2706,7 +2720,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1.9510000000000001</v>
       </c>
@@ -2729,7 +2743,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2752,7 +2766,7 @@
         <v>2.3809999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1.512</v>
       </c>
@@ -2775,7 +2789,7 @@
         <v>2.891</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3.2189999999999999</v>
       </c>
@@ -2798,7 +2812,7 @@
         <v>1.0880000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3.74</v>
       </c>
@@ -2821,7 +2835,7 @@
         <v>3.7210000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3.669</v>
       </c>
@@ -2844,7 +2858,7 @@
         <v>3.7010000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3.57</v>
       </c>
@@ -2867,7 +2881,7 @@
         <v>6.0830000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5.9260000000000002</v>
       </c>
@@ -2890,7 +2904,7 @@
         <v>4.6280000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3.802</v>
       </c>
@@ -2913,7 +2927,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2.802</v>
       </c>
@@ -2936,7 +2950,7 @@
         <v>1.8420000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2.242</v>
       </c>
@@ -2959,7 +2973,7 @@
         <v>3.3959999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1.94</v>
       </c>
@@ -2982,7 +2996,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2.1259999999999999</v>
       </c>
@@ -3005,7 +3019,7 @@
         <v>3.573</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3.08</v>
       </c>
@@ -3028,7 +3042,7 @@
         <v>2.2709999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3.2770000000000001</v>
       </c>
@@ -3051,7 +3065,7 @@
         <v>2.085</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3.1789999999999998</v>
       </c>
@@ -3074,7 +3088,7 @@
         <v>3.8220000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2.7280000000000002</v>
       </c>
@@ -3097,7 +3111,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2.62</v>
       </c>
@@ -3120,7 +3134,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2.2160000000000002</v>
       </c>
@@ -3143,7 +3157,7 @@
         <v>3.9790000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2.8340000000000001</v>
       </c>
@@ -3166,7 +3180,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2.359</v>
       </c>
@@ -3189,7 +3203,7 @@
         <v>3.3140000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2.5649999999999999</v>
       </c>
@@ -3212,7 +3226,7 @@
         <v>4.0309999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2.085</v>
       </c>
@@ -3235,7 +3249,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2.2599999999999998</v>
       </c>
@@ -3258,7 +3272,7 @@
         <v>4.194</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2.91</v>
       </c>
@@ -3281,7 +3295,7 @@
         <v>3.4470000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2.512</v>
       </c>
@@ -3304,7 +3318,7 @@
         <v>2.3639999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2.2599999999999998</v>
       </c>
@@ -3327,7 +3341,7 @@
         <v>3.645</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3.08</v>
       </c>
@@ -3350,7 +3364,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2.8660000000000001</v>
       </c>
@@ -3373,7 +3387,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2.3860000000000001</v>
       </c>
@@ -3396,7 +3410,7 @@
         <v>3.5129999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2.512</v>
       </c>
@@ -3419,7 +3433,7 @@
         <v>2.8109999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3.5089999999999999</v>
       </c>
@@ -3442,7 +3456,7 @@
         <v>2.8319999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2.98</v>
       </c>
@@ -3465,7 +3479,7 @@
         <v>1.639</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2.512</v>
       </c>
@@ -3488,7 +3502,7 @@
         <v>2.016</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2.98</v>
       </c>
@@ -3511,7 +3525,7 @@
         <v>1.651</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3.4620000000000002</v>
       </c>
@@ -3534,7 +3548,7 @@
         <v>4.0970000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2.7549999999999999</v>
       </c>
@@ -3557,7 +3571,7 @@
         <v>3.1230000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2.7549999999999999</v>
       </c>
@@ -3580,7 +3594,7 @@
         <v>3.2309999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2.024</v>
       </c>
@@ -3603,7 +3617,7 @@
         <v>5.0519999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2.609</v>
       </c>
@@ -3626,7 +3640,7 @@
         <v>3.5720000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2.8780000000000001</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>2.4359999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1.9610000000000001</v>
       </c>
@@ -3672,7 +3686,7 @@
         <v>2.5670000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2.665</v>
       </c>
@@ -3695,7 +3709,7 @@
         <v>1.7949999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.2509999999999999</v>
       </c>
@@ -3718,7 +3732,7 @@
         <v>5.0720000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2.3769999999999998</v>
       </c>
@@ -3741,7 +3755,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2.3660000000000001</v>
       </c>
@@ -3764,7 +3778,7 @@
         <v>1.0369999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2.8780000000000001</v>
       </c>
@@ -3787,7 +3801,7 @@
         <v>1.9319999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.9610000000000001</v>
       </c>
@@ -3810,7 +3824,7 @@
         <v>2.5049999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2.4620000000000002</v>
       </c>
@@ -3833,7 +3847,7 @@
         <v>1.524</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.778</v>
       </c>
@@ -3856,7 +3870,7 @@
         <v>3.048</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3.609</v>
       </c>
@@ -3879,7 +3893,7 @@
         <v>5.1150000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3.3159999999999998</v>
       </c>
@@ -3902,7 +3916,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -3925,7 +3939,7 @@
         <v>4.3659999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4.1710000000000003</v>
       </c>
@@ -3948,7 +3962,7 @@
         <v>4.976</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3.3159999999999998</v>
       </c>
@@ -3971,7 +3985,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3.4409999999999998</v>
       </c>
@@ -3994,7 +4008,7 @@
         <v>4.5380000000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2.4289999999999998</v>
       </c>
@@ -4017,7 +4031,7 @@
         <v>3.391</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3.1429999999999998</v>
       </c>
@@ -4040,7 +4054,7 @@
         <v>2.6920000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2.802</v>
       </c>
@@ -4063,7 +4077,7 @@
         <v>3.8250000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2.1259999999999999</v>
       </c>
@@ -4086,7 +4100,7 @@
         <v>3.206</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2.7090000000000001</v>
       </c>
@@ -4109,7 +4123,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2.7010000000000001</v>
       </c>
@@ -4132,7 +4146,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3.2519999999999998</v>
       </c>
@@ -4155,7 +4169,7 @@
         <v>3.2989999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2.1110000000000002</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>2.9140000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2.085</v>
       </c>
@@ -4201,7 +4215,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3.3610000000000002</v>
       </c>
@@ -4224,7 +4238,7 @@
         <v>3.1680000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3.52</v>
       </c>
@@ -4247,7 +4261,7 @@
         <v>3.4460000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3.0139999999999998</v>
       </c>
@@ -4270,7 +4284,7 @@
         <v>3.496</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3.181</v>
       </c>
@@ -4293,7 +4307,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3.3690000000000002</v>
       </c>
@@ -4316,7 +4330,7 @@
         <v>3.2519999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>3.2770000000000001</v>
       </c>
@@ -4339,7 +4353,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2.5070000000000001</v>
       </c>
@@ -4362,7 +4376,7 @@
         <v>3.9359999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3.2770000000000001</v>
       </c>
@@ -4385,7 +4399,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2.67</v>
       </c>
@@ -4408,7 +4422,7 @@
         <v>1.8420000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2.7040000000000002</v>
       </c>
@@ -4431,7 +4445,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3.2770000000000001</v>
       </c>
@@ -4454,7 +4468,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>3.5659999999999998</v>
       </c>
@@ -4477,7 +4491,7 @@
         <v>3.7189999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2.5939999999999999</v>
       </c>
@@ -4500,7 +4514,7 @@
         <v>1.7490000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>3.4849999999999999</v>
       </c>
@@ -4523,7 +4537,7 @@
         <v>3.5070000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3.3159999999999998</v>
       </c>
@@ -4546,7 +4560,7 @@
         <v>3.9790000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>3.5960000000000001</v>
       </c>
@@ -4569,7 +4583,7 @@
         <v>5.3630000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>3.74</v>
       </c>
@@ -4592,7 +4606,7 @@
         <v>4.3959999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3.669</v>
       </c>
@@ -4615,7 +4629,7 @@
         <v>3.984</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>3.1989999999999998</v>
       </c>
@@ -4638,7 +4652,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2.57</v>
       </c>
@@ -4661,7 +4675,7 @@
         <v>2.9729999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>3.641</v>
       </c>
@@ -4684,7 +4698,7 @@
         <v>3.1819999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4.0049999999999999</v>
       </c>
@@ -4707,7 +4721,7 @@
         <v>5.0549999999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3.8959999999999999</v>
       </c>
@@ -4730,7 +4744,7 @@
         <v>4.8220000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>3.2010000000000001</v>
       </c>
@@ -4753,7 +4767,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>3.98</v>
       </c>
@@ -4776,7 +4790,7 @@
         <v>4.819</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4.1139999999999999</v>
       </c>
@@ -4799,7 +4813,7 @@
         <v>5.2190000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4.2370000000000001</v>
       </c>
@@ -4822,7 +4836,7 @@
         <v>5.2679999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4.63</v>
       </c>
@@ -4845,7 +4859,7 @@
         <v>3.1389999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2.456</v>
       </c>
@@ -4868,7 +4882,7 @@
         <v>2.8580000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2.536</v>
       </c>
@@ -4891,7 +4905,7 @@
         <v>4.1909999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>3.4609999999999999</v>
       </c>
@@ -4914,7 +4928,7 @@
         <v>4.4160000000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2.641</v>
       </c>
@@ -4937,7 +4951,7 @@
         <v>3.5369999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3.38</v>
       </c>
@@ -4960,7 +4974,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2.544</v>
       </c>
@@ -4983,7 +4997,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1.2789999999999999</v>
       </c>
@@ -5006,7 +5020,7 @@
         <v>2.9359999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2.5720000000000001</v>
       </c>
@@ -5029,7 +5043,7 @@
         <v>8.4710000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3.222</v>
       </c>
@@ -5052,7 +5066,7 @@
         <v>5.8609999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3.7280000000000002</v>
       </c>
@@ -5075,7 +5089,7 @@
         <v>5.5739999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>3.3580000000000001</v>
       </c>
@@ -5098,7 +5112,7 @@
         <v>3.8519999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2.96</v>
       </c>
@@ -5121,7 +5135,7 @@
         <v>5.2439999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>4.8099999999999996</v>
       </c>
@@ -5144,7 +5158,7 @@
         <v>2.548</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3.3109999999999999</v>
       </c>
@@ -5167,7 +5181,7 @@
         <v>5.2759999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3.0230000000000001</v>
       </c>
@@ -5190,7 +5204,7 @@
         <v>3.9239999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2.585</v>
       </c>
@@ -5213,7 +5227,7 @@
         <v>6.3789999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1.925</v>
       </c>
@@ -5236,7 +5250,7 @@
         <v>4.7050000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2.4540000000000002</v>
       </c>
@@ -5259,7 +5273,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2.508</v>
       </c>
@@ -5282,7 +5296,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2.222</v>
       </c>
@@ -5305,7 +5319,7 @@
         <v>3.641</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3.3889999999999998</v>
       </c>
@@ -5328,7 +5342,7 @@
         <v>4.1079999999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2.0310000000000001</v>
       </c>
@@ -5351,7 +5365,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1.9650000000000001</v>
       </c>
@@ -5374,7 +5388,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>3.351</v>
       </c>
@@ -5397,7 +5411,7 @@
         <v>2.3919999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3.452</v>
       </c>
@@ -5420,7 +5434,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4.2880000000000003</v>
       </c>
@@ -5443,7 +5457,7 @@
         <v>5.6420000000000003</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2.359</v>
       </c>
@@ -5466,7 +5480,7 @@
         <v>4.2869999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2.085</v>
       </c>
@@ -5489,7 +5503,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1.962</v>
       </c>
@@ -5512,7 +5526,7 @@
         <v>4.2960000000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>3.0409999999999999</v>
       </c>
@@ -5535,7 +5549,7 @@
         <v>6.6070000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2.3769999999999998</v>
       </c>
@@ -5558,7 +5572,7 @@
         <v>3.7589999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3.0230000000000001</v>
       </c>
@@ -5581,7 +5595,7 @@
         <v>3.278</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2.7770000000000001</v>
       </c>
@@ -5604,7 +5618,7 @@
         <v>3.1179999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2.218</v>
       </c>
@@ -5627,7 +5641,7 @@
         <v>3.2370000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3.1030000000000002</v>
       </c>
@@ -5650,7 +5664,7 @@
         <v>3.2669999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1.8220000000000001</v>
       </c>
@@ -5673,7 +5687,7 @@
         <v>3.9329999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3.4590000000000001</v>
       </c>
@@ -5696,7 +5710,7 @@
         <v>4.4859999999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2.4420000000000002</v>
       </c>
@@ -5719,7 +5733,7 @@
         <v>4.3049999999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1.9450000000000001</v>
       </c>
@@ -5742,7 +5756,7 @@
         <v>3.927</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>3.3149999999999999</v>
       </c>
@@ -5765,7 +5779,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2.8679999999999999</v>
       </c>
@@ -5788,7 +5802,7 @@
         <v>4.8090000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2.9710000000000001</v>
       </c>
@@ -5811,7 +5825,7 @@
         <v>4.4989999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3.3780000000000001</v>
       </c>
@@ -5834,7 +5848,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2.9609999999999999</v>
       </c>
@@ -5857,7 +5871,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3.52</v>
       </c>
@@ -5880,7 +5894,7 @@
         <v>3.629</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3.012</v>
       </c>
@@ -5903,7 +5917,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2.778</v>
       </c>
@@ -5926,7 +5940,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>3.08</v>
       </c>
@@ -5949,7 +5963,7 @@
         <v>3.7269999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3.2810000000000001</v>
       </c>
@@ -5972,7 +5986,7 @@
         <v>3.0950000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2.359</v>
       </c>
@@ -5995,7 +6009,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2.0259999999999998</v>
       </c>
@@ -6018,7 +6032,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2.5070000000000001</v>
       </c>
@@ -6041,7 +6055,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3.4620000000000002</v>
       </c>
@@ -6064,7 +6078,7 @@
         <v>4.2080000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2.4620000000000002</v>
       </c>
@@ -6087,7 +6101,7 @@
         <v>3.6539999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3.0259999999999998</v>
       </c>
@@ -6110,7 +6124,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2.4289999999999998</v>
       </c>
@@ -6133,7 +6147,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2.8359999999999999</v>
       </c>
@@ -6156,7 +6170,7 @@
         <v>3.1779999999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4.2850000000000001</v>
       </c>
@@ -6179,7 +6193,7 @@
         <v>6.2549999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2.5339999999999998</v>
       </c>
@@ -6202,7 +6216,7 @@
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>4.077</v>
       </c>
@@ -6225,7 +6239,7 @@
         <v>4.4480000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3.137</v>
       </c>
@@ -6248,7 +6262,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2.0339999999999998</v>
       </c>
@@ -6271,7 +6285,7 @@
         <v>2.5859999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2.0339999999999998</v>
       </c>
@@ -6294,7 +6308,7 @@
         <v>2.117</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1.667</v>
       </c>
@@ -6317,7 +6331,7 @@
         <v>3.9550000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2.2829999999999999</v>
       </c>
@@ -6340,7 +6354,7 @@
         <v>4.2779999999999996</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>3.1640000000000001</v>
       </c>
@@ -6363,7 +6377,7 @@
         <v>3.1120000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3.03</v>
       </c>
@@ -6386,7 +6400,7 @@
         <v>6.8970000000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2.0310000000000001</v>
       </c>
@@ -6409,7 +6423,7 @@
         <v>6.4240000000000004</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4.2160000000000002</v>
       </c>
@@ -6432,7 +6446,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2.1190000000000002</v>
       </c>
@@ -6455,7 +6469,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3.9140000000000001</v>
       </c>
@@ -6478,7 +6492,7 @@
         <v>3.9260000000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3.5419999999999998</v>
       </c>
@@ -6501,7 +6515,7 @@
         <v>6.2839999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3.1019999999999999</v>
       </c>
@@ -6524,7 +6538,7 @@
         <v>3.4510000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>3.3929999999999998</v>
       </c>
@@ -6547,7 +6561,7 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3.1909999999999998</v>
       </c>
@@ -6570,7 +6584,7 @@
         <v>4.9669999999999996</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2.6389999999999998</v>
       </c>
@@ -6593,7 +6607,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2.4700000000000002</v>
       </c>
@@ -6616,7 +6630,7 @@
         <v>6.351</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2.1640000000000001</v>
       </c>
@@ -6639,7 +6653,7 @@
         <v>6.2069999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3.2469999999999999</v>
       </c>
@@ -6662,7 +6676,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4.2549999999999999</v>
       </c>
@@ -6685,7 +6699,7 @@
         <v>4.4749999999999996</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>3.629</v>
       </c>
@@ -6708,7 +6722,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>3.08</v>
       </c>
@@ -6731,7 +6745,7 @@
         <v>5.4779999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3.012</v>
       </c>
@@ -6754,7 +6768,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2.3740000000000001</v>
       </c>
@@ -6777,7 +6791,7 @@
         <v>5.048</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2.855</v>
       </c>
@@ -6800,7 +6814,7 @@
         <v>7.0449999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2.024</v>
       </c>
@@ -6823,7 +6837,7 @@
         <v>1.3069999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>3.7389999999999999</v>
       </c>
@@ -6846,7 +6860,7 @@
         <v>2.149</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>3.4260000000000002</v>
       </c>
@@ -6869,7 +6883,7 @@
         <v>3.0249999999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2.8780000000000001</v>
       </c>
@@ -6892,7 +6906,7 @@
         <v>2.4249999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4.7850000000000001</v>
       </c>
@@ -6915,7 +6929,7 @@
         <v>9.6120000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>3.286</v>
       </c>
@@ -6938,7 +6952,7 @@
         <v>1.7709999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2.5070000000000001</v>
       </c>
@@ -6961,7 +6975,7 @@
         <v>4.6029999999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2.8570000000000002</v>
       </c>
@@ -6984,7 +6998,7 @@
         <v>5.3109999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>3.9239999999999999</v>
       </c>
@@ -7007,7 +7021,7 @@
         <v>4.7130000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>3.601</v>
       </c>
@@ -7030,7 +7044,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3.6339999999999999</v>
       </c>
@@ -7053,7 +7067,7 @@
         <v>4.0510000000000002</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1.968</v>
       </c>
@@ -7076,7 +7090,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2.4289999999999998</v>
       </c>
@@ -7099,7 +7113,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>3.0289999999999999</v>
       </c>
@@ -7122,7 +7136,7 @@
         <v>2.4740000000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>3.605</v>
       </c>
@@ -7145,7 +7159,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2.024</v>
       </c>
@@ -7168,7 +7182,7 @@
         <v>3.0070000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>3.0259999999999998</v>
       </c>
@@ -7191,7 +7205,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>3.4620000000000002</v>
       </c>
@@ -7214,7 +7228,7 @@
         <v>4.5570000000000004</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>3.669</v>
       </c>
@@ -7237,7 +7251,7 @@
         <v>3.6040000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2.9</v>
       </c>
@@ -7260,7 +7274,7 @@
         <v>6.5640000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3.8319999999999999</v>
       </c>
@@ -7283,7 +7297,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>4.2850000000000001</v>
       </c>
@@ -7306,7 +7320,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>3.1640000000000001</v>
       </c>
@@ -7329,7 +7343,7 @@
         <v>6.1130000000000004</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>3.3319999999999999</v>
       </c>
@@ -7352,7 +7366,7 @@
         <v>3.3740000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2.3439999999999999</v>
       </c>
@@ -7375,7 +7389,7 @@
         <v>3.109</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>3.3530000000000002</v>
       </c>
@@ -7398,7 +7412,7 @@
         <v>2.4510000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2.9929999999999999</v>
       </c>
@@ -7421,7 +7435,7 @@
         <v>5.3949999999999996</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2.9140000000000001</v>
       </c>
@@ -7444,7 +7458,7 @@
         <v>4.109</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>3.1110000000000002</v>
       </c>
@@ -7467,7 +7481,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2.7770000000000001</v>
       </c>
@@ -7490,7 +7504,7 @@
         <v>4.7670000000000003</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3.1880000000000002</v>
       </c>
@@ -7513,7 +7527,7 @@
         <v>5.0119999999999996</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>3.1339999999999999</v>
       </c>
@@ -7536,7 +7550,7 @@
         <v>2.7389999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>3.5139999999999998</v>
       </c>
@@ -7559,7 +7573,7 @@
         <v>7.8090000000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>3.4359999999999999</v>
       </c>
@@ -7582,7 +7596,7 @@
         <v>4.3380000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2.2170000000000001</v>
       </c>
@@ -7605,7 +7619,7 @@
         <v>4.1820000000000004</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>3.2189999999999999</v>
       </c>
@@ -7628,7 +7642,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>3.645</v>
       </c>
@@ -7651,7 +7665,7 @@
         <v>5.1779999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2.6850000000000001</v>
       </c>
@@ -7674,7 +7688,7 @@
         <v>3.2189999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2.6850000000000001</v>
       </c>
@@ -7697,7 +7711,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2.9609999999999999</v>
       </c>
@@ -7720,7 +7734,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>3.52</v>
       </c>
@@ -7743,7 +7757,7 @@
         <v>2.883</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>4.0289999999999999</v>
       </c>
@@ -7766,7 +7780,7 @@
         <v>4.4509999999999996</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>1.883</v>
       </c>
@@ -7789,7 +7803,7 @@
         <v>2.9239999999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>3.4319999999999999</v>
       </c>
@@ -7812,7 +7826,7 @@
         <v>5.3390000000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>3.3690000000000002</v>
       </c>
@@ -7835,7 +7849,7 @@
         <v>2.226</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>3.323</v>
       </c>
@@ -7858,7 +7872,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>3.73</v>
       </c>
@@ -7881,7 +7895,7 @@
         <v>4.7320000000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>1.831</v>
       </c>
@@ -7904,7 +7918,7 @@
         <v>1.234</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>4.141</v>
       </c>
@@ -7927,7 +7941,7 @@
         <v>6.2329999999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3.0350000000000001</v>
       </c>
@@ -7950,7 +7964,7 @@
         <v>2.1070000000000002</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3.4609999999999999</v>
       </c>
@@ -7973,7 +7987,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3.867</v>
       </c>
@@ -7996,7 +8010,7 @@
         <v>5.6779999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>1.7130000000000001</v>
       </c>
@@ -8019,7 +8033,7 @@
         <v>3.0459999999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2.4409999999999998</v>
       </c>
@@ -8042,7 +8056,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1.6339999999999999</v>
       </c>
@@ -8065,7 +8079,7 @@
         <v>2.782</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>3.13</v>
       </c>
@@ -8088,7 +8102,7 @@
         <v>5.2290000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1.8859999999999999</v>
       </c>
@@ -8111,7 +8125,7 @@
         <v>4.7370000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1.8859999999999999</v>
       </c>
@@ -8134,7 +8148,7 @@
         <v>4.3419999999999996</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>3.6840000000000002</v>
       </c>
@@ -8157,7 +8171,7 @@
         <v>7.6909999999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>4.4610000000000003</v>
       </c>
@@ -8180,7 +8194,7 @@
         <v>4.7270000000000003</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>3.0870000000000002</v>
       </c>
@@ -8203,7 +8217,7 @@
         <v>3.9790000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>3.8220000000000001</v>
       </c>
@@ -8226,7 +8240,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>3.113</v>
       </c>
@@ -8249,7 +8263,7 @@
         <v>6.1429999999999998</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2.5649999999999999</v>
       </c>
@@ -8272,7 +8286,7 @@
         <v>2.1150000000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2.2170000000000001</v>
       </c>
@@ -8295,7 +8309,7 @@
         <v>5.1890000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2.95</v>
       </c>
@@ -8318,7 +8332,7 @@
         <v>5.383</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>3.4020000000000001</v>
       </c>
@@ -8341,7 +8355,7 @@
         <v>4.5570000000000004</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3.6179999999999999</v>
       </c>
@@ -8364,7 +8378,7 @@
         <v>5.1840000000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>3.613</v>
       </c>
@@ -8387,7 +8401,7 @@
         <v>4.8860000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3.7389999999999999</v>
       </c>
@@ -8410,7 +8424,7 @@
         <v>5.4340000000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2.2509999999999999</v>
       </c>
@@ -8433,7 +8447,7 @@
         <v>5.6319999999999997</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2.4540000000000002</v>
       </c>
@@ -8456,7 +8470,7 @@
         <v>6.3170000000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2.2160000000000002</v>
       </c>
@@ -8479,7 +8493,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>3.323</v>
       </c>
@@ -8502,7 +8516,7 @@
         <v>6.5250000000000004</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2.1259999999999999</v>
       </c>
@@ -8525,7 +8539,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1.8859999999999999</v>
       </c>
@@ -8548,7 +8562,7 @@
         <v>3.8889999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3.1749999999999998</v>
       </c>
@@ -8571,7 +8585,7 @@
         <v>4.0949999999999998</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3.641</v>
       </c>
@@ -8594,7 +8608,7 @@
         <v>5.0519999999999996</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2.0190000000000001</v>
       </c>
@@ -8617,7 +8631,7 @@
         <v>4.3680000000000003</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3.7090000000000001</v>
       </c>
@@ -8640,7 +8654,7 @@
         <v>5.5679999999999996</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2.4790000000000001</v>
       </c>
@@ -8663,7 +8677,7 @@
         <v>4.4580000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3.5590000000000002</v>
       </c>
@@ -8686,7 +8700,7 @@
         <v>3.4580000000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>4.05</v>
       </c>
@@ -8709,7 +8723,7 @@
         <v>5.6669999999999998</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3.24</v>
       </c>
@@ -8732,7 +8746,7 @@
         <v>4.5439999999999996</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4.8289999999999997</v>
       </c>
@@ -8755,7 +8769,7 @@
         <v>6.3470000000000004</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2.0790000000000002</v>
       </c>
@@ -8778,7 +8792,7 @@
         <v>2.6080000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>4.0369999999999999</v>
       </c>
@@ -8801,7 +8815,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2.137</v>
       </c>
@@ -8824,7 +8838,7 @@
         <v>3.7789999999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3.4209999999999998</v>
       </c>
@@ -8847,7 +8861,7 @@
         <v>5.0289999999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1.2789999999999999</v>
       </c>
@@ -8870,7 +8884,7 @@
         <v>4.6970000000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3.2519999999999998</v>
       </c>
@@ -8893,7 +8907,7 @@
         <v>4.6740000000000004</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3.2519999999999998</v>
       </c>
@@ -8916,7 +8930,7 @@
         <v>4.3840000000000003</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>3.7389999999999999</v>
       </c>
@@ -8939,7 +8953,7 @@
         <v>7.3460000000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2.5910000000000002</v>
       </c>
@@ -8962,7 +8976,7 @@
         <v>2.395</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2.1179999999999999</v>
       </c>
@@ -8985,7 +8999,7 @@
         <v>3.6379999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>3.274</v>
       </c>
@@ -9008,7 +9022,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2.544</v>
       </c>
@@ -9031,7 +9045,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2.08</v>
       </c>
@@ -9054,7 +9068,7 @@
         <v>4.9610000000000003</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2.8</v>
       </c>
@@ -9077,7 +9091,7 @@
         <v>3.6030000000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>3.9</v>
       </c>
@@ -9100,7 +9114,7 @@
         <v>3.8420000000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>3.177</v>
       </c>
@@ -9123,7 +9137,7 @@
         <v>4.1159999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2.1110000000000002</v>
       </c>
@@ -9146,7 +9160,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>3.609</v>
       </c>
@@ -9169,7 +9183,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>3.2610000000000001</v>
       </c>
@@ -9192,7 +9206,7 @@
         <v>4.1820000000000004</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>3.38</v>
       </c>
@@ -9215,7 +9229,7 @@
         <v>3.8410000000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2.8180000000000001</v>
       </c>
@@ -9238,7 +9252,7 @@
         <v>3.726</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2.4420000000000002</v>
       </c>
@@ -9261,7 +9275,7 @@
         <v>4.2080000000000002</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3.63</v>
       </c>
@@ -9284,7 +9298,7 @@
         <v>4.3049999999999997</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>4.5350000000000001</v>
       </c>
@@ -9307,7 +9321,7 @@
         <v>8.5709999999999997</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3.7559999999999998</v>
       </c>
@@ -9330,7 +9344,7 @@
         <v>4.4249999999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2.198</v>
       </c>
@@ -9353,7 +9367,7 @@
         <v>3.3279999999999998</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>3.1589999999999998</v>
       </c>
@@ -9376,7 +9390,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2.8620000000000001</v>
       </c>
@@ -9399,7 +9413,7 @@
         <v>4.5119999999999996</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>4.1210000000000004</v>
       </c>
@@ -9422,7 +9436,7 @@
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2.3090000000000002</v>
       </c>
@@ -9445,7 +9459,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>3.69</v>
       </c>
@@ -9468,7 +9482,7 @@
         <v>3.5990000000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>3.282</v>
       </c>
@@ -9491,7 +9505,7 @@
         <v>3.7570000000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>3.4649999999999999</v>
       </c>
@@ -9514,7 +9528,7 @@
         <v>3.6230000000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>3.2519999999999998</v>
       </c>
@@ -9537,7 +9551,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>4.085</v>
       </c>
@@ -9560,7 +9574,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2.726</v>
       </c>
@@ -9583,7 +9597,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2.0790000000000002</v>
       </c>
@@ -9606,7 +9620,7 @@
         <v>3.298</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>3.867</v>
       </c>
@@ -9629,7 +9643,7 @@
         <v>4.0640000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>3.33</v>
       </c>
@@ -9652,7 +9666,7 @@
         <v>3.6909999999999998</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2.3039999999999998</v>
       </c>
@@ -9675,7 +9689,7 @@
         <v>4.6349999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>3.6909999999999998</v>
       </c>
@@ -9698,7 +9712,7 @@
         <v>5.4720000000000004</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3.323</v>
       </c>
@@ -9721,7 +9735,7 @@
         <v>4.577</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3.5009999999999999</v>
       </c>
@@ -9744,7 +9758,7 @@
         <v>5.1470000000000002</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2.5939999999999999</v>
       </c>
@@ -9767,7 +9781,7 @@
         <v>3.1120000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3.38</v>
       </c>
@@ -9790,7 +9804,7 @@
         <v>5.2779999999999996</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3.3319999999999999</v>
       </c>
@@ -9813,7 +9827,7 @@
         <v>4.891</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3.5779999999999998</v>
       </c>
@@ -9836,7 +9850,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2.8570000000000002</v>
       </c>
@@ -9859,7 +9873,7 @@
         <v>4.2949999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2.6339999999999999</v>
       </c>
@@ -9882,7 +9896,7 @@
         <v>3.9260000000000002</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2.8359999999999999</v>
       </c>
@@ -9905,7 +9919,7 @@
         <v>8.2070000000000007</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>3.1789999999999998</v>
       </c>
@@ -9928,7 +9942,7 @@
         <v>4.1539999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3.5880000000000001</v>
       </c>
@@ -9951,7 +9965,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>3.0259999999999998</v>
       </c>
@@ -9974,7 +9988,7 @@
         <v>1.8120000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>3.7389999999999999</v>
       </c>
@@ -9997,7 +10011,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2.9550000000000001</v>
       </c>
@@ -10020,7 +10034,7 @@
         <v>2.9609999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>1.8440000000000001</v>
       </c>
@@ -10043,7 +10057,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>4.3949999999999996</v>
       </c>
@@ -10066,7 +10080,7 @@
         <v>6.484</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>3.1280000000000001</v>
       </c>
@@ -10089,7 +10103,7 @@
         <v>5.0389999999999997</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2.4169999999999998</v>
       </c>
@@ -10112,7 +10126,7 @@
         <v>4.1689999999999996</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3.0550000000000002</v>
       </c>
@@ -10135,7 +10149,7 @@
         <v>5.3929999999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2.6240000000000001</v>
       </c>
@@ -10158,7 +10172,7 @@
         <v>6.3140000000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>3.4359999999999999</v>
       </c>
@@ -10181,7 +10195,7 @@
         <v>5.0869999999999997</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2.423</v>
       </c>
@@ -10204,7 +10218,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2.548</v>
       </c>
@@ -10227,7 +10241,7 @@
         <v>3.5880000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2.6469999999999998</v>
       </c>
@@ -10250,7 +10264,7 @@
         <v>4.508</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3.1960000000000002</v>
       </c>
@@ -10273,7 +10287,7 @@
         <v>6.0179999999999998</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>3.3780000000000001</v>
       </c>
@@ -10296,7 +10310,7 @@
         <v>4.8540000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2.3959999999999999</v>
       </c>
@@ -10319,7 +10333,7 @@
         <v>6.0229999999999997</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1.9830000000000001</v>
       </c>
@@ -10342,7 +10356,7 @@
         <v>5.0620000000000003</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>4.0860000000000003</v>
       </c>
@@ -10365,7 +10379,7 @@
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>3.3530000000000002</v>
       </c>
@@ -10388,7 +10402,7 @@
         <v>5.0179999999999998</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3.1739999999999999</v>
       </c>
@@ -10411,7 +10425,7 @@
         <v>7.3819999999999997</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>3.5670000000000002</v>
       </c>
@@ -10434,7 +10448,7 @@
         <v>4.0430000000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>3.5910000000000002</v>
       </c>
@@ -10457,7 +10471,7 @@
         <v>4.117</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>3.81</v>
       </c>
@@ -10480,7 +10494,7 @@
         <v>3.8380000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>3.3109999999999999</v>
       </c>
@@ -10503,7 +10517,7 @@
         <v>4.2439999999999998</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>0.66700000000000004</v>
       </c>
@@ -10526,7 +10540,7 @@
         <v>5.5579999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>3.9790000000000001</v>
       </c>
@@ -10549,7 +10563,7 @@
         <v>4.2389999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2.8620000000000001</v>
       </c>
@@ -10572,7 +10586,7 @@
         <v>6.1710000000000003</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2.1829999999999998</v>
       </c>
@@ -10595,7 +10609,7 @@
         <v>4.7389999999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2.74</v>
       </c>
@@ -10618,7 +10632,7 @@
         <v>4.2149999999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>3.0009999999999999</v>
       </c>
@@ -10641,7 +10655,7 @@
         <v>5.2619999999999996</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>3.3780000000000001</v>
       </c>
@@ -10664,7 +10678,7 @@
         <v>5.9329999999999998</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>3.55</v>
       </c>
@@ -10687,7 +10701,7 @@
         <v>4.8109999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>4.3109999999999999</v>
       </c>
@@ -10710,7 +10724,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3.5870000000000002</v>
       </c>
@@ -10733,7 +10747,7 @@
         <v>3.6560000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2.8929999999999998</v>
       </c>
@@ -10756,7 +10770,7 @@
         <v>6.0469999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3.8980000000000001</v>
       </c>
@@ -10779,7 +10793,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>3.6749999999999998</v>
       </c>
@@ -10802,7 +10816,7 @@
         <v>4.1360000000000001</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2.8170000000000002</v>
       </c>
@@ -10825,7 +10839,7 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>3.9369999999999998</v>
       </c>
@@ -10848,7 +10862,7 @@
         <v>3.2970000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>1.9650000000000001</v>
       </c>
@@ -10871,7 +10885,7 @@
         <v>5.3029999999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2.819</v>
       </c>
@@ -10894,7 +10908,7 @@
         <v>2.9409999999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2.0190000000000001</v>
       </c>
@@ -10917,7 +10931,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>1.8220000000000001</v>
       </c>
@@ -10940,7 +10954,7 @@
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2.9279999999999999</v>
       </c>
@@ -10963,7 +10977,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2.4790000000000001</v>
       </c>
@@ -10986,7 +11000,7 @@
         <v>4.1189999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>3.7930000000000001</v>
       </c>
@@ -11009,7 +11023,7 @@
         <v>6.0380000000000003</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>3.38</v>
       </c>
@@ -11032,7 +11046,7 @@
         <v>4.9509999999999996</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>4.181</v>
       </c>
@@ -11055,7 +11069,7 @@
         <v>6.2130000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2.2970000000000002</v>
       </c>
@@ -11078,7 +11092,7 @@
         <v>3.5550000000000002</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2.206</v>
       </c>
@@ -11101,7 +11115,7 @@
         <v>4.7389999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>3.407</v>
       </c>
@@ -11124,7 +11138,7 @@
         <v>6.258</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>1.8440000000000001</v>
       </c>
@@ -11147,7 +11161,7 @@
         <v>6.7839999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2.2160000000000002</v>
       </c>
@@ -11170,7 +11184,7 @@
         <v>3.7509999999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>4.3719999999999999</v>
       </c>
@@ -11193,7 +11207,7 @@
         <v>6.569</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>3.0649999999999999</v>
       </c>
@@ -11216,7 +11230,7 @@
         <v>6.8819999999999997</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1.786</v>
       </c>
@@ -11239,7 +11253,7 @@
         <v>8.1319999999999997</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>1.883</v>
       </c>
@@ -11262,7 +11276,7 @@
         <v>1.153</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2.11</v>
       </c>
@@ -11285,7 +11299,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>1.9750000000000001</v>
       </c>
@@ -11308,7 +11322,7 @@
         <v>4.2270000000000003</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>3.629</v>
       </c>
@@ -11331,7 +11345,7 @@
         <v>4.2690000000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2.3090000000000002</v>
       </c>
@@ -11354,7 +11368,7 @@
         <v>3.782</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>3.3159999999999998</v>
       </c>
@@ -11377,7 +11391,7 @@
         <v>3.8540000000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>4.2229999999999999</v>
       </c>
@@ -11400,7 +11414,7 @@
         <v>8.1690000000000005</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>3.3330000000000002</v>
       </c>
@@ -11423,7 +11437,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>3.7490000000000001</v>
       </c>
@@ -11446,7 +11460,7 @@
         <v>4.7770000000000001</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>3.351</v>
       </c>
@@ -11469,7 +11483,7 @@
         <v>3.903</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3.0979999999999999</v>
       </c>
@@ -11492,7 +11506,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>3.734</v>
       </c>
@@ -11515,7 +11529,7 @@
         <v>5.1589999999999998</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>3.073</v>
       </c>
@@ -11538,7 +11552,7 @@
         <v>6.6449999999999996</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>3.2490000000000001</v>
       </c>
@@ -11561,7 +11575,7 @@
         <v>6.4459999999999997</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2.137</v>
       </c>
@@ -11584,7 +11598,7 @@
         <v>4.8650000000000002</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>4.2469999999999999</v>
       </c>
@@ -11607,7 +11621,7 @@
         <v>5.0659999999999998</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2.375</v>
       </c>
@@ -11630,7 +11644,7 @@
         <v>3.895</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>1.6339999999999999</v>
       </c>
@@ -11653,7 +11667,7 @@
         <v>2.056</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2.3090000000000002</v>
       </c>
@@ -11676,7 +11690,7 @@
         <v>3.601</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>3.2189999999999999</v>
       </c>
@@ -11699,7 +11713,7 @@
         <v>4.2569999999999997</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>4.2050000000000001</v>
       </c>
@@ -11722,7 +11736,7 @@
         <v>5.0019999999999998</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2.2400000000000002</v>
       </c>
@@ -11745,7 +11759,7 @@
         <v>2.286</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2.2330000000000001</v>
       </c>
@@ -11768,7 +11782,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>3.24</v>
       </c>
@@ -11791,7 +11805,7 @@
         <v>3.5979999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2.2970000000000002</v>
       </c>
@@ -11814,7 +11828,7 @@
         <v>3.6080000000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2.3740000000000001</v>
       </c>
@@ -11837,7 +11851,7 @@
         <v>5.2770000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2.5680000000000001</v>
       </c>
@@ -11860,7 +11874,7 @@
         <v>3.5129999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>3.734</v>
       </c>
@@ -11883,7 +11897,7 @@
         <v>3.387</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>3.601</v>
       </c>
@@ -11906,7 +11920,7 @@
         <v>3.141</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>3.08</v>
       </c>
@@ -11929,7 +11943,7 @@
         <v>3.528</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>3.734</v>
       </c>
@@ -11952,7 +11966,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>4.532</v>
       </c>
@@ -11975,7 +11989,7 @@
         <v>5.3070000000000004</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>4.3239999999999998</v>
       </c>
@@ -11998,7 +12012,7 @@
         <v>4.3019999999999996</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3.08</v>
       </c>
@@ -12021,7 +12035,7 @@
         <v>3.5179999999999998</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3.073</v>
       </c>
@@ -12044,7 +12058,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>1.962</v>
       </c>
@@ -12067,7 +12081,7 @@
         <v>5.7519999999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3.3860000000000001</v>
       </c>
@@ -12090,7 +12104,7 @@
         <v>3.0859999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2.448</v>
       </c>
@@ -12113,7 +12127,7 @@
         <v>3.5209999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>3.25</v>
       </c>
@@ -12136,7 +12150,7 @@
         <v>3.9260000000000002</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2.8239999999999998</v>
       </c>
@@ -12159,7 +12173,7 @@
         <v>3.1680000000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3.1339999999999999</v>
       </c>
@@ -12182,7 +12196,7 @@
         <v>2.6920000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>3.11</v>
       </c>
@@ -12205,7 +12219,7 @@
         <v>3.9740000000000002</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>2.3090000000000002</v>
       </c>
@@ -12228,7 +12242,7 @@
         <v>2.7149999999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>3.2</v>
       </c>
@@ -12251,7 +12265,7 @@
         <v>2.681</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>3.3370000000000002</v>
       </c>
@@ -12274,7 +12288,7 @@
         <v>7.4290000000000003</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>2.077</v>
       </c>
@@ -12297,7 +12311,7 @@
         <v>4.4240000000000004</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>2.0859999999999999</v>
       </c>
@@ -12320,7 +12334,7 @@
         <v>3.8149999999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>3.7</v>
       </c>
@@ -12343,7 +12357,7 @@
         <v>3.6619999999999999</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>0.96499999999999997</v>
       </c>
@@ -12366,7 +12380,7 @@
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>2.1829999999999998</v>
       </c>
@@ -12389,7 +12403,7 @@
         <v>4.2240000000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>2.0310000000000001</v>
       </c>
@@ -12412,7 +12426,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2.4279999999999999</v>
       </c>
@@ -12435,7 +12449,7 @@
         <v>1.3009999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>3.871</v>
       </c>
@@ -12458,7 +12472,7 @@
         <v>4.5389999999999997</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>3.0459999999999998</v>
       </c>
@@ -12481,7 +12495,7 @@
         <v>4.0750000000000002</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>4.532</v>
       </c>
@@ -12504,7 +12518,7 @@
         <v>5.1040000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2.238</v>
       </c>
@@ -12527,7 +12541,7 @@
         <v>4.5129999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2.8410000000000002</v>
       </c>
@@ -12550,7 +12564,7 @@
         <v>1.647</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>4.0309999999999997</v>
       </c>
@@ -12573,7 +12587,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2.4790000000000001</v>
       </c>
@@ -12596,7 +12610,7 @@
         <v>4.9119999999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>3.2519999999999998</v>
       </c>
@@ -12619,7 +12633,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>2.0939999999999999</v>
       </c>
@@ -12642,7 +12656,7 @@
         <v>5.4489999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>2.7280000000000002</v>
       </c>
@@ -12665,7 +12679,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>2.8239999999999998</v>
       </c>
@@ -12688,7 +12702,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>2.9710000000000001</v>
       </c>
@@ -12711,7 +12725,7 @@
         <v>4.5650000000000004</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>2.4769999999999999</v>
       </c>
@@ -12734,7 +12748,7 @@
         <v>2.4740000000000002</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>1.9770000000000001</v>
       </c>
@@ -12757,7 +12771,7 @@
         <v>4.798</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>2.4390000000000001</v>
       </c>
@@ -12780,7 +12794,7 @@
         <v>5.0069999999999997</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>3.0489999999999999</v>
       </c>
@@ -12803,7 +12817,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>3.78</v>
       </c>
@@ -12826,7 +12840,7 @@
         <v>4.9379999999999997</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>3.2189999999999999</v>
       </c>
@@ -12849,7 +12863,7 @@
         <v>3.3969999999999998</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>2.4950000000000001</v>
       </c>
@@ -12872,7 +12886,7 @@
         <v>1.9690000000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>3.0259999999999998</v>
       </c>
@@ -12895,7 +12909,7 @@
         <v>2.5510000000000002</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>2.875</v>
       </c>
@@ -12918,7 +12932,7 @@
         <v>3.0750000000000002</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>2.1259999999999999</v>
       </c>
@@ -12941,7 +12955,7 @@
         <v>4.2629999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>1.639</v>
       </c>
@@ -12964,7 +12978,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>3.669</v>
       </c>
@@ -12987,7 +13001,7 @@
         <v>4.6100000000000003</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>3.609</v>
       </c>
@@ -13010,7 +13024,7 @@
         <v>4.4690000000000003</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>2.33</v>
       </c>
@@ -13033,7 +13047,7 @@
         <v>4.5590000000000002</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>2.5419999999999998</v>
       </c>
@@ -13056,7 +13070,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2.456</v>
       </c>
@@ -13079,7 +13093,7 @@
         <v>2.2629999999999999</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>3.18</v>
       </c>
@@ -13102,7 +13116,7 @@
         <v>4.9630000000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2.4820000000000002</v>
       </c>
@@ -13125,7 +13139,7 @@
         <v>4.9189999999999996</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2.7189999999999999</v>
       </c>
@@ -13148,7 +13162,7 @@
         <v>3.2890000000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>3.0230000000000001</v>
       </c>
@@ -13171,7 +13185,7 @@
         <v>3.379</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>2.2509999999999999</v>
       </c>
@@ -13194,7 +13208,7 @@
         <v>4.0209999999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>4.88</v>
       </c>
@@ -13217,7 +13231,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>2.08</v>
       </c>
@@ -13240,7 +13254,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2.8759999999999999</v>
       </c>
@@ -13263,7 +13277,7 @@
         <v>6.1479999999999997</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>2.2509999999999999</v>
       </c>
@@ -13286,7 +13300,7 @@
         <v>4.1749999999999998</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>4.1390000000000002</v>
       </c>
@@ -13309,7 +13323,7 @@
         <v>5.7670000000000003</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2.1219999999999999</v>
       </c>
@@ -13332,7 +13346,7 @@
         <v>5.6769999999999996</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>4.0609999999999999</v>
       </c>
@@ -13355,7 +13369,7 @@
         <v>3.1509999999999998</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>3.0670000000000002</v>
       </c>
@@ -13378,7 +13392,7 @@
         <v>5.3179999999999996</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>2.125</v>
       </c>
@@ -13401,7 +13415,7 @@
         <v>3.0070000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>3.452</v>
       </c>
@@ -13424,7 +13438,7 @@
         <v>3.742</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>2.4790000000000001</v>
       </c>
@@ -13447,7 +13461,7 @@
         <v>5.3410000000000002</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>3.528</v>
       </c>
@@ -13470,7 +13484,7 @@
         <v>5.4660000000000002</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>2.802</v>
       </c>
@@ -13493,7 +13507,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>3.609</v>
       </c>
@@ -13516,7 +13530,7 @@
         <v>4.2469999999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>3.198</v>
       </c>
@@ -13539,7 +13553,7 @@
         <v>3.8740000000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>2.8879999999999999</v>
       </c>
@@ -13562,7 +13576,7 @@
         <v>2.9830000000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>4.4429999999999996</v>
       </c>
@@ -13585,7 +13599,7 @@
         <v>6.4829999999999997</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>1.7829999999999999</v>
       </c>
@@ -13608,7 +13622,7 @@
         <v>6.0640000000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>2.3330000000000002</v>
       </c>
@@ -13631,7 +13645,7 @@
         <v>3.8839999999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>3.5259999999999998</v>
       </c>
@@ -13654,7 +13668,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>3.5259999999999998</v>
       </c>
@@ -13677,7 +13691,7 @@
         <v>3.423</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>2.3660000000000001</v>
       </c>
@@ -13700,7 +13714,7 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>2.508</v>
       </c>
@@ -13723,7 +13737,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>4.4359999999999999</v>
       </c>
@@ -13746,7 +13760,7 @@
         <v>5.4119999999999999</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>4.3559999999999999</v>
       </c>
@@ -13769,7 +13783,7 @@
         <v>5.758</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>2.1829999999999998</v>
       </c>
@@ -13792,7 +13806,7 @@
         <v>3.6659999999999999</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>3.012</v>
       </c>
@@ -13815,7 +13829,7 @@
         <v>3.7509999999999999</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>2.508</v>
       </c>
@@ -13838,7 +13852,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>3.1030000000000002</v>
       </c>
@@ -13861,7 +13875,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>3.05</v>
       </c>
@@ -13884,7 +13898,7 @@
         <v>6.1950000000000003</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>2.585</v>
       </c>
@@ -13907,7 +13921,7 @@
         <v>6.5510000000000002</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>1.962</v>
       </c>
@@ -13930,7 +13944,7 @@
         <v>5.3520000000000003</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>3.1429999999999998</v>
       </c>
@@ -13953,7 +13967,7 @@
         <v>2.2639999999999998</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>2.8029999999999999</v>
       </c>
@@ -13976,7 +13990,7 @@
         <v>5.3849999999999998</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>2.1259999999999999</v>
       </c>
@@ -13999,7 +14013,7 @@
         <v>4.7619999999999996</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>4.532</v>
       </c>
@@ -14022,7 +14036,7 @@
         <v>5.5410000000000004</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>2.528</v>
       </c>
@@ -14045,7 +14059,7 @@
         <v>3.0249999999999999</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>3.1030000000000002</v>
       </c>
@@ -14068,7 +14082,7 @@
         <v>3.6509999999999998</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>3.1709999999999998</v>
       </c>
@@ -14091,7 +14105,7 @@
         <v>3.569</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>3.1030000000000002</v>
       </c>
@@ -14114,7 +14128,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>2.456</v>
       </c>
@@ -14137,7 +14151,7 @@
         <v>4.2859999999999996</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>3.26</v>
       </c>
@@ -14160,7 +14174,7 @@
         <v>2.7450000000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>2.802</v>
       </c>
@@ -14183,7 +14197,7 @@
         <v>4.423</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>3.08</v>
       </c>
@@ -14206,7 +14220,7 @@
         <v>2.3690000000000002</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>3.0459999999999998</v>
       </c>
@@ -14229,7 +14243,7 @@
         <v>3.6139999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>2.2170000000000001</v>
       </c>
@@ -14252,7 +14266,7 @@
         <v>3.7269999999999999</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>4.258</v>
       </c>
@@ -14275,7 +14289,7 @@
         <v>5.7409999999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>4.7169999999999996</v>
       </c>
@@ -14298,7 +14312,7 @@
         <v>6.3840000000000003</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>3.1429999999999998</v>
       </c>
@@ -14321,7 +14335,7 @@
         <v>2.4870000000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>3.423</v>
       </c>
@@ -14344,7 +14358,7 @@
         <v>3.6890000000000001</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>3.3319999999999999</v>
       </c>
@@ -14367,7 +14381,7 @@
         <v>3.806</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>2.7480000000000002</v>
       </c>
@@ -14390,7 +14404,7 @@
         <v>1.462</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>4.1349999999999998</v>
       </c>
@@ -14413,7 +14427,7 @@
         <v>5.5380000000000003</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>3.4849999999999999</v>
       </c>
@@ -14436,7 +14450,7 @@
         <v>2.8530000000000002</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>2.3769999999999998</v>
       </c>
@@ -14459,7 +14473,7 @@
         <v>5.0049999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>2.508</v>
       </c>
@@ -14482,7 +14496,7 @@
         <v>3.4830000000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>2.3769999999999998</v>
       </c>
@@ -14505,7 +14519,7 @@
         <v>3.9910000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>3.3140000000000001</v>
       </c>
@@ -14528,7 +14542,7 @@
         <v>3.8119999999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>3.7879999999999998</v>
       </c>
@@ -14551,7 +14565,7 @@
         <v>4.6639999999999997</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>2.0859999999999999</v>
       </c>
@@ -14574,7 +14588,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>2.2599999999999998</v>
       </c>
@@ -14597,7 +14611,7 @@
         <v>6.0060000000000002</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>1.925</v>
       </c>
@@ -14620,7 +14634,7 @@
         <v>5.5910000000000002</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>2.3769999999999998</v>
       </c>
@@ -14643,7 +14657,7 @@
         <v>5.0830000000000002</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>2.2149999999999999</v>
       </c>
@@ -14666,7 +14680,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>3.9049999999999998</v>
       </c>
@@ -14689,7 +14703,7 @@
         <v>4.9470000000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>3.0230000000000001</v>
       </c>
@@ -14712,7 +14726,7 @@
         <v>3.9169999999999998</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>2.726</v>
       </c>
@@ -14735,7 +14749,7 @@
         <v>3.661</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>2.5680000000000001</v>
       </c>
@@ -14758,7 +14772,7 @@
         <v>3.5939999999999999</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>2.6360000000000001</v>
       </c>
@@ -14781,7 +14795,7 @@
         <v>4.3929999999999998</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>2.4390000000000001</v>
       </c>
@@ -14804,7 +14818,7 @@
         <v>4.8559999999999999</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>2.7810000000000001</v>
       </c>
@@ -14827,7 +14841,7 @@
         <v>3.8460000000000001</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>4.1369999999999996</v>
       </c>
@@ -14850,7 +14864,7 @@
         <v>5.194</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>1.7330000000000001</v>
       </c>
@@ -14873,7 +14887,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>2.3769999999999998</v>
       </c>
@@ -14896,7 +14910,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>2.2149999999999999</v>
       </c>
@@ -14919,7 +14933,7 @@
         <v>3.9319999999999999</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>2.3769999999999998</v>
       </c>
@@ -14942,7 +14956,7 @@
         <v>5.1459999999999999</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>2.11</v>
       </c>
@@ -14965,7 +14979,7 @@
         <v>3.391</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>2.5830000000000002</v>
       </c>
@@ -14988,7 +15002,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>2.11</v>
       </c>
@@ -15011,7 +15025,7 @@
         <v>3.7869999999999999</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>2.3290000000000002</v>
       </c>
@@ -15034,7 +15048,7 @@
         <v>3.097</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>2.512</v>
       </c>
@@ -15057,7 +15071,7 @@
         <v>3.0779999999999998</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>1.512</v>
       </c>
@@ -15080,7 +15094,7 @@
         <v>2.4449999999999998</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>2.0920000000000001</v>
       </c>
@@ -15103,7 +15117,7 @@
         <v>4.7960000000000003</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>1.774</v>
       </c>
@@ -15126,7 +15140,7 @@
         <v>1.897</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>3.052</v>
       </c>
@@ -15149,7 +15163,7 @@
         <v>4.9059999999999997</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>3.3140000000000001</v>
       </c>
@@ -15172,7 +15186,7 @@
         <v>4.4729999999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>3.5539999999999998</v>
       </c>
@@ -15195,7 +15209,7 @@
         <v>3.4590000000000001</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>2.726</v>
       </c>
@@ -15218,7 +15232,7 @@
         <v>2.1259999999999999</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>2.9830000000000001</v>
       </c>
@@ -15241,7 +15255,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>2.778</v>
       </c>
@@ -15264,7 +15278,7 @@
         <v>6.6520000000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>2.6339999999999999</v>
       </c>
@@ -15287,7 +15301,7 @@
         <v>3.1309999999999998</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>2.08</v>
       </c>
@@ -15310,7 +15324,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>2.536</v>
       </c>
@@ -15333,7 +15347,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>2.0339999999999998</v>
       </c>
@@ -15356,7 +15370,7 @@
         <v>2.0720000000000001</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>2.7549999999999999</v>
       </c>
@@ -15379,7 +15393,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>1.8919999999999999</v>
       </c>
@@ -15402,7 +15416,7 @@
         <v>6.0869999999999997</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>3.4020000000000001</v>
       </c>
@@ -15425,7 +15439,7 @@
         <v>5.0860000000000003</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>3.2189999999999999</v>
       </c>
@@ -15448,7 +15462,7 @@
         <v>4.7590000000000003</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>3.137</v>
       </c>
@@ -15471,7 +15485,7 @@
         <v>2.4119999999999999</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>3.1949999999999998</v>
       </c>
@@ -15494,7 +15508,7 @@
         <v>4.4459999999999997</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>1</v>
       </c>
@@ -15517,7 +15531,7 @@
         <v>3.4990000000000001</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>3.343</v>
       </c>
@@ -15540,7 +15554,7 @@
         <v>3.327</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>2.1259999999999999</v>
       </c>
@@ -15563,7 +15577,7 @@
         <v>5.3609999999999998</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>2.0190000000000001</v>
       </c>
@@ -15586,7 +15600,7 @@
         <v>4.7370000000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>2.2170000000000001</v>
       </c>
@@ -15609,7 +15623,7 @@
         <v>5.3079999999999998</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>2.0190000000000001</v>
       </c>
@@ -15632,7 +15646,7 @@
         <v>5.0010000000000003</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>2.0249999999999999</v>
       </c>
@@ -15655,7 +15669,7 @@
         <v>4.6719999999999997</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>2.4790000000000001</v>
       </c>
@@ -15678,7 +15692,7 @@
         <v>4.181</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>1.946</v>
       </c>
@@ -15701,7 +15715,7 @@
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>3.6509999999999998</v>
       </c>
@@ -15724,7 +15738,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>3.2519999999999998</v>
       </c>
@@ -15747,7 +15761,7 @@
         <v>4.093</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>2.9870000000000001</v>
       </c>
@@ -15770,7 +15784,7 @@
         <v>6.077</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>3.4049999999999998</v>
       </c>
@@ -15793,7 +15807,7 @@
         <v>4.1319999999999997</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>2.4300000000000002</v>
       </c>
@@ -15816,7 +15830,7 @@
         <v>3.133</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>2.2330000000000001</v>
       </c>
@@ -15839,7 +15853,7 @@
         <v>5.2510000000000003</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>2.0649999999999999</v>
       </c>
@@ -15862,7 +15876,7 @@
         <v>4.399</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>2.4689999999999999</v>
       </c>
@@ -15885,7 +15899,7 @@
         <v>4.0019999999999998</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>3.08</v>
       </c>
@@ -15908,7 +15922,7 @@
         <v>3.7570000000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>1.6339999999999999</v>
       </c>
@@ -15931,7 +15945,7 @@
         <v>2.569</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>3.5960000000000001</v>
       </c>
@@ -15954,7 +15968,7 @@
         <v>4.8280000000000003</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>1.6339999999999999</v>
       </c>
@@ -15977,7 +15991,7 @@
         <v>2.319</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>3.6749999999999998</v>
       </c>
@@ -16000,7 +16014,7 @@
         <v>4.7060000000000004</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>3.3330000000000002</v>
       </c>
@@ -16023,7 +16037,7 @@
         <v>4.6319999999999997</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>2.3959999999999999</v>
       </c>
@@ -16046,7 +16060,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>2.0259999999999998</v>
       </c>
@@ -16069,7 +16083,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>1.7509999999999999</v>
       </c>
@@ -16092,7 +16106,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>2.1890000000000001</v>
       </c>
@@ -16115,7 +16129,7 @@
         <v>5.242</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>1.333</v>
       </c>
@@ -16138,7 +16152,7 @@
         <v>3.4870000000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>2.0339999999999998</v>
       </c>
@@ -16161,7 +16175,7 @@
         <v>0.84099999999999997</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>0.97299999999999998</v>
       </c>
@@ -16184,7 +16198,7 @@
         <v>2.7250000000000001</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>3.8279999999999998</v>
       </c>
@@ -16207,7 +16221,7 @@
         <v>8.6039999999999992</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>3.0289999999999999</v>
       </c>
@@ -16230,7 +16244,7 @@
         <v>1.885</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>3.0030000000000001</v>
       </c>
@@ -16253,7 +16267,7 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>3.74</v>
       </c>
@@ -16276,7 +16290,7 @@
         <v>4.3959999999999999</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>2.5550000000000002</v>
       </c>
@@ -16299,7 +16313,7 @@
         <v>2.601</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>3.86</v>
       </c>
@@ -16322,7 +16336,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>3.98</v>
       </c>
@@ -16345,7 +16359,7 @@
         <v>4.7030000000000003</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>1.7829999999999999</v>
       </c>
@@ -16368,7 +16382,7 @@
         <v>1.7769999999999999</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>2.1259999999999999</v>
       </c>
@@ -16391,7 +16405,7 @@
         <v>2.4580000000000002</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>4.1909999999999998</v>
       </c>
@@ -16414,7 +16428,7 @@
         <v>2.6179999999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>3.0649999999999999</v>
       </c>
@@ -16437,7 +16451,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>3.9609999999999999</v>
       </c>
@@ -16460,7 +16474,7 @@
         <v>5.8419999999999996</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>3.0049999999999999</v>
       </c>
@@ -16483,7 +16497,7 @@
         <v>7.2869999999999999</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>4.3600000000000003</v>
       </c>
@@ -16506,7 +16520,7 @@
         <v>6.665</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>3.0270000000000001</v>
       </c>
@@ -16529,7 +16543,7 @@
         <v>3.0089999999999999</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>2.448</v>
       </c>
@@ -16552,7 +16566,7 @@
         <v>3.5129999999999999</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>3.4609999999999999</v>
       </c>
@@ -16575,7 +16589,7 @@
         <v>3.3929999999999998</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>4.2190000000000003</v>
       </c>
@@ -16598,7 +16612,7 @@
         <v>9.3539999999999992</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>2.4790000000000001</v>
       </c>
@@ -16621,7 +16635,7 @@
         <v>4.2080000000000002</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>3.6760000000000002</v>
       </c>
@@ -16644,7 +16658,7 @@
         <v>3.976</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>3.0329999999999999</v>
       </c>
@@ -16667,7 +16681,7 @@
         <v>4.8319999999999999</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>2.6840000000000002</v>
       </c>
@@ -16690,7 +16704,7 @@
         <v>4.4039999999999999</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>2.3959999999999999</v>
       </c>
@@ -16713,7 +16727,7 @@
         <v>1.121</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>2.7480000000000002</v>
       </c>
@@ -16736,7 +16750,7 @@
         <v>1.589</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>3.0350000000000001</v>
       </c>
@@ -16759,7 +16773,7 @@
         <v>2.2170000000000001</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>2.585</v>
       </c>
@@ -16782,7 +16796,7 @@
         <v>3.5019999999999998</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>1.4390000000000001</v>
       </c>
@@ -16805,7 +16819,7 @@
         <v>3.4020000000000001</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>3.444</v>
       </c>
@@ -16828,7 +16842,7 @@
         <v>4.0039999999999996</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>5.1580000000000004</v>
       </c>
@@ -16851,7 +16865,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>2.5259999999999998</v>
       </c>
@@ -16874,7 +16888,7 @@
         <v>3.5609999999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>3.593</v>
       </c>
@@ -16897,7 +16911,7 @@
         <v>7.6070000000000002</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>3.3759999999999999</v>
       </c>
@@ -16920,7 +16934,7 @@
         <v>4.8620000000000001</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>3.98</v>
       </c>
@@ -16943,7 +16957,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>4.3049999999999997</v>
       </c>
@@ -16966,7 +16980,7 @@
         <v>5.1920000000000002</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>2.9260000000000002</v>
       </c>
@@ -16989,7 +17003,7 @@
         <v>3.0459999999999998</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>4.1660000000000004</v>
       </c>
@@ -17012,7 +17026,7 @@
         <v>5.9119999999999999</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>2.9380000000000002</v>
       </c>
@@ -17035,7 +17049,7 @@
         <v>4.593</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>4.5359999999999996</v>
       </c>
@@ -17058,7 +17072,7 @@
         <v>6.6340000000000003</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>3.1339999999999999</v>
       </c>
@@ -17081,7 +17095,7 @@
         <v>4.8040000000000003</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>2.165</v>
       </c>
@@ -17104,7 +17118,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>1.1259999999999999</v>
       </c>
@@ -17127,7 +17141,7 @@
         <v>1.399</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>1.429</v>
       </c>
@@ -17150,7 +17164,7 @@
         <v>3.0760000000000001</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>1.429</v>
       </c>
@@ -17173,7 +17187,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>1</v>
       </c>
@@ -17196,7 +17210,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>0.96499999999999997</v>
       </c>
@@ -17219,7 +17233,7 @@
         <v>3.2719999999999998</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>3.0009999999999999</v>
       </c>
@@ -17242,7 +17256,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>2.7480000000000002</v>
       </c>
@@ -17265,7 +17279,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>1.2789999999999999</v>
       </c>
@@ -17288,7 +17302,7 @@
         <v>2.9249999999999998</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>3.08</v>
       </c>
@@ -17311,7 +17325,7 @@
         <v>3.0609999999999999</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>1.5229999999999999</v>
       </c>
@@ -17334,7 +17348,7 @@
         <v>2.6930000000000001</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>1.8320000000000001</v>
       </c>
@@ -17357,7 +17371,7 @@
         <v>3.8279999999999998</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>1.7010000000000001</v>
       </c>
@@ -17380,7 +17394,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>1.0940000000000001</v>
       </c>
@@ -17403,7 +17417,7 @@
         <v>1.911</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>2.931</v>
       </c>
@@ -17426,7 +17440,7 @@
         <v>7.0170000000000003</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>2.1259999999999999</v>
       </c>
@@ -17449,7 +17463,7 @@
         <v>4.1840000000000002</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>3.641</v>
       </c>
@@ -17472,7 +17486,7 @@
         <v>3.246</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>2.137</v>
       </c>
@@ -17495,7 +17509,7 @@
         <v>3.8410000000000002</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>3.5139999999999998</v>
       </c>
@@ -17518,7 +17532,7 @@
         <v>4.4649999999999999</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>3.6680000000000001</v>
       </c>
@@ -17541,7 +17555,7 @@
         <v>3.782</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>2.6320000000000001</v>
       </c>
@@ -17564,7 +17578,7 @@
         <v>2.9750000000000001</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>2.4649999999999999</v>
       </c>
@@ -17587,7 +17601,7 @@
         <v>7.5910000000000002</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>2.33</v>
       </c>
@@ -17610,7 +17624,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>3.4649999999999999</v>
       </c>
@@ -17633,7 +17647,7 @@
         <v>3.407</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>3.2770000000000001</v>
       </c>
@@ -17656,7 +17670,7 @@
         <v>2.1819999999999999</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>2.8660000000000001</v>
       </c>
@@ -17679,7 +17693,7 @@
         <v>1.9059999999999999</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>3.738</v>
       </c>
@@ -17702,7 +17716,7 @@
         <v>4.4219999999999997</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>2.08</v>
       </c>
@@ -17725,7 +17739,7 @@
         <v>3.6930000000000001</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>3.7389999999999999</v>
       </c>
@@ -17748,7 +17762,7 @@
         <v>5.6890000000000001</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>3.1909999999999998</v>
       </c>
@@ -17771,7 +17785,7 @@
         <v>2.6859999999999999</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>3.8149999999999999</v>
       </c>
@@ -17794,7 +17808,7 @@
         <v>4.6909999999999998</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>4.6280000000000001</v>
       </c>
@@ -17817,7 +17831,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>3.41</v>
       </c>
@@ -17840,7 +17854,7 @@
         <v>2.7370000000000001</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>2.7389999999999999</v>
       </c>
@@ -17863,7 +17877,7 @@
         <v>2.9529999999999998</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>2.7480000000000002</v>
       </c>
@@ -17886,7 +17900,7 @@
         <v>1.6910000000000001</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>2.024</v>
       </c>
@@ -17909,7 +17923,7 @@
         <v>2.9279999999999999</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>2.665</v>
       </c>
@@ -17932,7 +17946,7 @@
         <v>1.8169999999999999</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>2.7480000000000002</v>
       </c>
@@ -17955,7 +17969,7 @@
         <v>1.3049999999999999</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>2.4620000000000002</v>
       </c>
@@ -17978,7 +17992,7 @@
         <v>1.3520000000000001</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>2.3769999999999998</v>
       </c>
@@ -18001,7 +18015,7 @@
         <v>1.474</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>3.2</v>
       </c>
@@ -18024,7 +18038,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>1.4390000000000001</v>
       </c>
@@ -18047,7 +18061,7 @@
         <v>3.2130000000000001</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>1.1259999999999999</v>
       </c>
@@ -18070,7 +18084,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>1.6359999999999999</v>
       </c>
@@ -18093,7 +18107,7 @@
         <v>2.766</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>2.024</v>
       </c>
@@ -18116,7 +18130,7 @@
         <v>2.2690000000000001</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>1.5</v>
       </c>
@@ -18139,7 +18153,7 @@
         <v>3.9159999999999999</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>3.9569999999999999</v>
       </c>
@@ -18162,7 +18176,7 @@
         <v>4.577</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>3.383</v>
       </c>
@@ -18185,7 +18199,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>3.819</v>
       </c>
@@ -18208,7 +18222,7 @@
         <v>3.7149999999999999</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>3.044</v>
       </c>
@@ -18231,7 +18245,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>3.7759999999999998</v>
       </c>
@@ -18254,7 +18268,7 @@
         <v>4.6909999999999998</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>3.39</v>
       </c>
@@ -18277,7 +18291,7 @@
         <v>5.2640000000000002</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>3.645</v>
       </c>
@@ -18300,7 +18314,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>3.9209999999999998</v>
       </c>
@@ -18323,7 +18337,7 @@
         <v>3.4159999999999999</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>3.9929999999999999</v>
       </c>
@@ -18346,7 +18360,7 @@
         <v>4.6109999999999998</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>2.5070000000000001</v>
       </c>
@@ -18369,7 +18383,7 @@
         <v>2.4950000000000001</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>4.5659999999999998</v>
       </c>
@@ -18392,7 +18406,7 @@
         <v>6.923</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>2.3769999999999998</v>
       </c>
@@ -18415,7 +18429,7 @@
         <v>5.3719999999999999</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>2.1179999999999999</v>
       </c>
@@ -18438,7 +18452,7 @@
         <v>3.8450000000000002</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>2.5230000000000001</v>
       </c>
@@ -18461,7 +18475,7 @@
         <v>4.3840000000000003</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>3.3610000000000002</v>
       </c>
@@ -18484,7 +18498,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>3.7</v>
       </c>
@@ -18507,7 +18521,7 @@
         <v>3.9710000000000001</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>2.8180000000000001</v>
       </c>
@@ -18530,7 +18544,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>3.4649999999999999</v>
       </c>
@@ -18553,7 +18567,7 @@
         <v>4.984</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>3.0030000000000001</v>
       </c>
@@ -18576,7 +18590,7 @@
         <v>4.1710000000000003</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>4.2679999999999998</v>
       </c>
@@ -18599,7 +18613,7 @@
         <v>7.8490000000000002</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>3.26</v>
       </c>
@@ -18622,7 +18636,7 @@
         <v>4.5780000000000003</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>3.4260000000000002</v>
       </c>
@@ -18645,7 +18659,7 @@
         <v>4.3769999999999998</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>3.8879999999999999</v>
       </c>
@@ -18668,7 +18682,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>3.4769999999999999</v>
       </c>
@@ -18691,7 +18705,7 @@
         <v>4.1159999999999997</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>4.05</v>
       </c>
@@ -18714,7 +18728,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>4.05</v>
       </c>
@@ -18737,7 +18751,7 @@
         <v>5.367</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>3.5569999999999999</v>
       </c>
@@ -18760,7 +18774,7 @@
         <v>4.7110000000000003</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>4.0730000000000004</v>
       </c>
@@ -18783,7 +18797,7 @@
         <v>5.2240000000000002</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2.7440000000000002</v>
       </c>
@@ -18806,7 +18820,7 @@
         <v>4.2839999999999998</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>3.2519999999999998</v>
       </c>
@@ -18829,7 +18843,7 @@
         <v>5.2919999999999998</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2.8149999999999999</v>
       </c>
@@ -18852,7 +18866,7 @@
         <v>2.758</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2.0310000000000001</v>
       </c>
@@ -18875,7 +18889,7 @@
         <v>2.6890000000000001</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>3.2650000000000001</v>
       </c>
@@ -18898,7 +18912,7 @@
         <v>4.7320000000000002</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2.085</v>
       </c>
@@ -18921,7 +18935,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2.351</v>
       </c>
@@ -18944,7 +18958,7 @@
         <v>6.4160000000000004</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2.8220000000000001</v>
       </c>
@@ -18967,7 +18981,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>3.3149999999999999</v>
       </c>
@@ -18990,7 +19004,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>1.417</v>
       </c>
@@ -19013,7 +19027,7 @@
         <v>4.4210000000000003</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2.1179999999999999</v>
       </c>
@@ -19036,7 +19050,7 @@
         <v>4.9880000000000004</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>1.925</v>
       </c>
@@ -19059,7 +19073,7 @@
         <v>4.4989999999999997</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2.536</v>
       </c>
@@ -19082,7 +19096,7 @@
         <v>2.5369999999999999</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2.4300000000000002</v>
       </c>
@@ -19105,7 +19119,7 @@
         <v>3.5680000000000001</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>1.8220000000000001</v>
       </c>
@@ -19128,7 +19142,7 @@
         <v>3.7309999999999999</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2.125</v>
       </c>
@@ -19151,7 +19165,7 @@
         <v>2.9390000000000001</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>3.0979999999999999</v>
       </c>
@@ -19174,7 +19188,7 @@
         <v>6.2359999999999998</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>3.26</v>
       </c>
@@ -19197,7 +19211,7 @@
         <v>6.298</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2.9820000000000002</v>
       </c>
@@ -19220,7 +19234,7 @@
         <v>3.5219999999999998</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2.0190000000000001</v>
       </c>
@@ -19243,7 +19257,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2.508</v>
       </c>
@@ -19266,7 +19280,7 @@
         <v>3.7890000000000001</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>3.4609999999999999</v>
       </c>
@@ -19289,7 +19303,7 @@
         <v>4.6719999999999997</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>2.2330000000000001</v>
       </c>
@@ -19312,7 +19326,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2.4769999999999999</v>
       </c>
@@ -19335,7 +19349,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>3.3940000000000001</v>
       </c>
@@ -19358,7 +19372,7 @@
         <v>4.1989999999999998</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2.9369999999999998</v>
       </c>
@@ -19381,7 +19395,7 @@
         <v>4.8490000000000002</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>3.012</v>
       </c>
@@ -19404,7 +19418,7 @@
         <v>4.5380000000000003</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>3.3149999999999999</v>
       </c>
@@ -19427,7 +19441,7 @@
         <v>4.5069999999999997</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2.11</v>
       </c>
@@ -19450,7 +19464,7 @@
         <v>5.5179999999999998</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>4.2779999999999996</v>
       </c>
@@ -19473,7 +19487,7 @@
         <v>4.6680000000000001</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>3.1789999999999998</v>
       </c>
@@ -19496,7 +19510,7 @@
         <v>4.3220000000000001</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2.8340000000000001</v>
       </c>
@@ -19519,7 +19533,7 @@
         <v>3.448</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2.448</v>
       </c>
@@ -19542,7 +19556,7 @@
         <v>2.9039999999999999</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>3.9209999999999998</v>
       </c>
@@ -19565,7 +19579,7 @@
         <v>3.8610000000000002</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>3.532</v>
       </c>
@@ -19588,7 +19602,7 @@
         <v>3.9590000000000001</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>3.585</v>
       </c>
@@ -19611,7 +19625,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>3.0859999999999999</v>
       </c>
@@ -19634,7 +19648,7 @@
         <v>5.1070000000000002</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>3.4649999999999999</v>
       </c>
@@ -19657,7 +19671,7 @@
         <v>4.8090000000000002</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>3.3149999999999999</v>
       </c>
@@ -19680,7 +19694,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>1.855</v>
       </c>
@@ -19703,7 +19717,7 @@
         <v>2.8380000000000001</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2.8660000000000001</v>
       </c>
@@ -19726,7 +19740,7 @@
         <v>3.411</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2.137</v>
       </c>
@@ -19749,7 +19763,7 @@
         <v>3.2879999999999998</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>3.036</v>
       </c>
@@ -19772,7 +19786,7 @@
         <v>4.2469999999999999</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>3.1110000000000002</v>
       </c>
@@ -19795,7 +19809,7 @@
         <v>5.1689999999999996</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2.677</v>
       </c>
@@ -19818,7 +19832,7 @@
         <v>2.895</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>1.962</v>
       </c>
@@ -19841,7 +19855,7 @@
         <v>5.3479999999999999</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2.4420000000000002</v>
       </c>
@@ -19864,7 +19878,7 @@
         <v>4.2080000000000002</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>3.1709999999999998</v>
       </c>
@@ -19887,7 +19901,7 @@
         <v>3.984</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2.9820000000000002</v>
       </c>
@@ -19910,7 +19924,7 @@
         <v>3.665</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>3.8740000000000001</v>
       </c>
@@ -19933,7 +19947,7 @@
         <v>4.5609999999999999</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2.4300000000000002</v>
       </c>
@@ -19956,7 +19970,7 @@
         <v>4.6280000000000001</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2.4350000000000001</v>
       </c>
@@ -19979,7 +19993,7 @@
         <v>2.839</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>3.2469999999999999</v>
       </c>
@@ -20002,7 +20016,7 @@
         <v>4.2619999999999996</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2.9279999999999999</v>
       </c>
@@ -20025,7 +20039,7 @@
         <v>4.141</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>3.2349999999999999</v>
       </c>
@@ -20048,7 +20062,7 @@
         <v>5.3540000000000001</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>3.177</v>
       </c>
@@ -20071,7 +20085,7 @@
         <v>3.3650000000000002</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2.4950000000000001</v>
       </c>
@@ -20094,7 +20108,7 @@
         <v>4.0229999999999997</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2.2330000000000001</v>
       </c>
@@ -20117,7 +20131,7 @@
         <v>3.3250000000000002</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>3.1789999999999998</v>
       </c>
@@ -20140,7 +20154,7 @@
         <v>3.8109999999999999</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2.7280000000000002</v>
       </c>
@@ -20163,7 +20177,7 @@
         <v>3.8969999999999998</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2.62</v>
       </c>
@@ -20186,7 +20200,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2.1259999999999999</v>
       </c>
@@ -20209,7 +20223,7 @@
         <v>4.194</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>2.2160000000000002</v>
       </c>
@@ -20232,7 +20246,7 @@
         <v>4.3529999999999998</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2.62</v>
       </c>
@@ -20255,7 +20269,7 @@
         <v>3.7530000000000001</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2.8340000000000001</v>
       </c>
@@ -20278,7 +20292,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2.0859999999999999</v>
       </c>
@@ -20301,7 +20315,7 @@
         <v>3.9950000000000001</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>3.407</v>
       </c>
@@ -20324,7 +20338,7 @@
         <v>4.1920000000000002</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>3.012</v>
       </c>
@@ -20347,7 +20361,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2.4769999999999999</v>
       </c>
@@ -20370,7 +20384,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2.4769999999999999</v>
       </c>
@@ -20393,7 +20407,7 @@
         <v>4.7430000000000003</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2.08</v>
       </c>
@@ -20416,7 +20430,7 @@
         <v>4.3319999999999999</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2.8879999999999999</v>
       </c>
@@ -20439,7 +20453,7 @@
         <v>1.9350000000000001</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2.08</v>
       </c>
@@ -20462,7 +20476,7 @@
         <v>4.9889999999999999</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2.1259999999999999</v>
       </c>
@@ -20485,7 +20499,7 @@
         <v>5.8150000000000004</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>1.925</v>
       </c>
@@ -20508,7 +20522,7 @@
         <v>5.1920000000000002</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>3.69</v>
       </c>
@@ -20531,7 +20545,7 @@
         <v>6.6440000000000001</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>3.8140000000000001</v>
       </c>
@@ -20554,7 +20568,7 @@
         <v>3.698</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>2.8879999999999999</v>
       </c>
@@ -20577,7 +20591,7 @@
         <v>5.1050000000000004</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>2.8239999999999998</v>
       </c>
@@ -20600,7 +20614,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>1.855</v>
       </c>
@@ -20623,7 +20637,7 @@
         <v>3.4870000000000001</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>2.802</v>
       </c>
@@ -20646,7 +20660,7 @@
         <v>3.9369999999999998</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>1.92</v>
       </c>
@@ -20669,7 +20683,7 @@
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>2.802</v>
       </c>
@@ -20692,7 +20706,7 @@
         <v>1.748</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>2.4350000000000001</v>
       </c>
@@ -20715,7 +20729,7 @@
         <v>2.0139999999999998</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>3.6110000000000002</v>
       </c>
@@ -20738,7 +20752,7 @@
         <v>2.859</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>2.2149999999999999</v>
       </c>
@@ -20761,7 +20775,7 @@
         <v>4.0839999999999996</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>3.16</v>
       </c>
@@ -20784,7 +20798,7 @@
         <v>5.9390000000000001</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>3.26</v>
       </c>
@@ -20807,7 +20821,7 @@
         <v>3.835</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>1.9650000000000001</v>
       </c>
@@ -20830,7 +20844,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>1.7829999999999999</v>
       </c>
@@ -20853,7 +20867,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>2.3479999999999999</v>
       </c>
@@ -20876,7 +20890,7 @@
         <v>3.7690000000000001</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>3.4609999999999999</v>
       </c>
@@ -20899,7 +20913,7 @@
         <v>4.4630000000000001</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>3.407</v>
       </c>
@@ -20922,7 +20936,7 @@
         <v>4.2789999999999999</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>2.8239999999999998</v>
       </c>
@@ -20945,7 +20959,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>2.2330000000000001</v>
       </c>
@@ -20968,7 +20982,7 @@
         <v>3.6150000000000002</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>2.08</v>
       </c>
@@ -20991,7 +21005,7 @@
         <v>3.0219999999999998</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>2.4340000000000002</v>
       </c>
@@ -21014,7 +21028,7 @@
         <v>3.5750000000000002</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>2.7650000000000001</v>
       </c>
@@ -21037,7 +21051,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>2.4300000000000002</v>
       </c>
@@ -21060,7 +21074,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>2.2519999999999998</v>
       </c>
@@ -21083,7 +21097,7 @@
         <v>5.3029999999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>2.508</v>
       </c>
@@ -21106,7 +21120,7 @@
         <v>3.242</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>2.508</v>
       </c>
@@ -21129,7 +21143,7 @@
         <v>3.3450000000000002</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>2.2509999999999999</v>
       </c>
@@ -21152,7 +21166,7 @@
         <v>4.4160000000000004</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>2.0939999999999999</v>
       </c>
@@ -21175,7 +21189,7 @@
         <v>4.2389999999999999</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>3.7389999999999999</v>
       </c>
@@ -21198,7 +21212,7 @@
         <v>4.6379999999999999</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>3.3319999999999999</v>
       </c>
@@ -21221,7 +21235,7 @@
         <v>3.415</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>2.4300000000000002</v>
       </c>
@@ -21244,7 +21258,7 @@
         <v>3.4409999999999998</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>2.8149999999999999</v>
       </c>
@@ -21267,7 +21281,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>1.5</v>
       </c>
@@ -21290,7 +21304,7 @@
         <v>2.661</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>3.1259999999999999</v>
       </c>
@@ -21313,7 +21327,7 @@
         <v>4.282</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>3.86</v>
       </c>
@@ -21336,7 +21350,7 @@
         <v>3.919</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>1.8140000000000001</v>
       </c>
@@ -21359,7 +21373,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>3.69</v>
       </c>
@@ -21382,7 +21396,7 @@
         <v>5.7489999999999997</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>4.2110000000000003</v>
       </c>
@@ -21405,7 +21419,7 @@
         <v>8.9160000000000004</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>2.16</v>
       </c>
@@ -21428,7 +21442,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>4.327</v>
       </c>
@@ -21451,7 +21465,7 @@
         <v>6.6829999999999998</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>3.0569999999999999</v>
       </c>
@@ -21474,7 +21488,7 @@
         <v>8.4329999999999998</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>3.4009999999999998</v>
       </c>
@@ -21497,7 +21511,7 @@
         <v>3.5289999999999999</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>2.0859999999999999</v>
       </c>
@@ -21520,7 +21534,7 @@
         <v>6.093</v>
       </c>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>3.08</v>
       </c>
@@ -21543,7 +21557,7 @@
         <v>2.4940000000000002</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>3.41</v>
       </c>
@@ -21566,7 +21580,7 @@
         <v>3.0169999999999999</v>
       </c>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>3.101</v>
       </c>
@@ -21589,7 +21603,7 @@
         <v>6.2380000000000004</v>
       </c>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>3.5990000000000002</v>
       </c>
@@ -21612,7 +21626,7 @@
         <v>6.1829999999999998</v>
       </c>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>2.9860000000000002</v>
       </c>
@@ -21635,7 +21649,7 @@
         <v>3.1520000000000001</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>2.8039999999999998</v>
       </c>
@@ -21658,7 +21672,7 @@
         <v>6.2539999999999996</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>3.67</v>
       </c>
@@ -21681,7 +21695,7 @@
         <v>2.964</v>
       </c>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>3.4750000000000001</v>
       </c>
@@ -21704,7 +21718,7 @@
         <v>4.8029999999999999</v>
       </c>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>2.8010000000000002</v>
       </c>
@@ -21727,7 +21741,7 @@
         <v>3.109</v>
       </c>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>3.6520000000000001</v>
       </c>
@@ -21750,7 +21764,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>3.7629999999999999</v>
       </c>
@@ -21773,7 +21787,7 @@
         <v>4.8179999999999996</v>
       </c>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>2.831</v>
       </c>
@@ -21796,7 +21810,7 @@
         <v>5.3170000000000002</v>
       </c>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>4.0570000000000004</v>
       </c>
@@ -21820,6 +21834,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
